--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Desktop/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5344A0DB-F3B9-4DFA-ACEC-95B9F52F7841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{5344A0DB-F3B9-4DFA-ACEC-95B9F52F7841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6B2322-528B-4587-8430-385270D06F16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{37656707-7428-4E23-8618-7AE9ABBC9BC5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="308">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>&lt;&lt; Test Scenarios</t>
   </si>
   <si>
     <t>TC_RF_001</t>
@@ -918,10 +915,6 @@
     <t>TC_SF_001</t>
   </si>
   <si>
-    <t>(TS_005)
-Search Functionality</t>
-  </si>
-  <si>
     <t>Validate searching with an existing Product Name</t>
   </si>
   <si>
@@ -1253,12 +1246,16 @@
   <si>
     <t>1. Search functionality should work correctly in all the supported environments</t>
   </si>
+  <si>
+    <t>(TS_003)
+Search Functionality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,13 +1300,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1403,15 +1393,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1453,28 +1440,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1878,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B07DD36-7E40-47BA-BB59-C5AFAFC79429}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A25" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1933,755 +1914,1474 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="342" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="342" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="216" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="216" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="216" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="6">
+        <v>12345</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="7">
-        <v>12345</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J29">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J29" xr:uid="{3BFF487D-C927-45FB-9687-800224C33A04}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFFCB4-DDB9-420E-9B0B-84E8D1FA408C}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="15" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="288" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J25">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
@@ -2696,739 +3396,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J29" xr:uid="{3BFF487D-C927-45FB-9687-800224C33A04}">
-      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{D773D4A4-CF40-47CF-BCBB-38D021BBC79F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFFCB4-DDB9-420E-9B0B-84E8D1FA408C}">
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="16" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J25">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J25" xr:uid="{CB001221-6F0A-4F3A-BB4F-D3C1601D4186}">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{ED5347D0-9DAE-4C4D-B780-0C310B8C83B6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3438,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA3BC6-EC28-4D4F-BF08-33B6224C4B4D}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,649 +3428,647 @@
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="E3" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="F3" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="G3" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="B4" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="D4" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="F4" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="G6" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="E9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="306" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="324" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="G13" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="E14" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="E15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="G16" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="G20" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="E21" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="E22" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="E23" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" ht="153" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="28"/>
-    </row>
-    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="E24" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="28"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4124,9 +4093,6 @@
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{D92BFDBB-B094-43C9-9477-32DD1A0DE0AE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>